--- a/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Graduação (licenciatura)-Presencial.xlsx
+++ b/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Graduação (licenciatura)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7499783441980451</v>
+        <v>0.7002819711352856</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7669558561438481</v>
+        <v>0.7519441616710743</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8816111178850442</v>
+        <v>0.8794885391110399</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2152263109827154</v>
+        <v>0.18908889858493205</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.2910325205050306</v>
+        <v>3.0313503876251664</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.021615649359514322</v>
+        <v>0.02496864066969237</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.1864177489177488</v>
+        <v>1.6361138861138862</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.673379914818025</v>
+        <v>0.5493342120912275</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.18463735055731006</v>
+        <v>0.09870108272215665</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7088038403849914</v>
+        <v>0.6964134564575267</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7267607410809342</v>
+        <v>0.7390151314095985</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8520522155751216</v>
+        <v>0.8731011273042146</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.1947171214479683</v>
+        <v>0.19091886050009296</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.659796194573206</v>
+        <v>2.8316397628761916</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.025369673787273107</v>
+        <v>0.025720903768839686</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04604016354429555</v>
+        <v>0.06191690007447061</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1371396025923126</v>
+        <v>0.09913110681007856</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7140469403395548</v>
+        <v>0.657677848945402</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7335870991438931</v>
+        <v>0.7172291553481218</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8581914921673885</v>
+        <v>0.8592349019552072</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.20020777036777374</v>
+        <v>0.17448796224049484</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.7535719808858388</v>
+        <v>2.5364324820372115</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.024961496222543518</v>
+        <v>0.02861894474733878</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04686966227556545</v>
+        <v>0.06174722907443313</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.15097090014136474</v>
+        <v>0.09379289979149155</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7163012023406785</v>
+        <v>0.6663072899903387</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7300313545115767</v>
+        <v>0.7234662804466822</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8547386346145551</v>
+        <v>0.8601851257206459</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.1973224929771569</v>
+        <v>0.1789929207650611</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.7041338566958935</v>
+        <v>2.6161955280364726</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.024673231929631986</v>
+        <v>0.0278978423297257</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04626028252292498</v>
+        <v>0.061238381412252484</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.15097090014136474</v>
+        <v>0.09406184404143444</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7154160147189484</v>
+        <v>0.6877681005100429</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.733372512570878</v>
+        <v>0.7224938448242394</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8588765055373418</v>
+        <v>0.8560935814626187</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2000320591654101</v>
+        <v>0.17828051178223508</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.7505510389877985</v>
+        <v>2.6035236745168504</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.024803419352343432</v>
+        <v>0.02624881350874098</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04713733751564276</v>
+        <v>0.050013119067963796</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1371396025923126</v>
+        <v>0.09671974045690307</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7371701805770811</v>
+        <v>0.6742125663659164</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7553647044204588</v>
+        <v>0.724909965006396</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8416962182471468</v>
+        <v>0.8568670265606689</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.21917798731271318</v>
+        <v>0.18005754999314647</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.087717586421856</v>
+        <v>2.6351734806506206</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.02266117732709605</v>
+        <v>0.026798814451953503</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04463410887243535</v>
+        <v>0.04937259683964076</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18494263055551968</v>
+        <v>0.09913110681007856</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7365398474331599</v>
+        <v>0.673614002773607</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7542961384206137</v>
+        <v>0.7242429468095758</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8413125121445505</v>
+        <v>0.856269412918895</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.21819141243448317</v>
+        <v>0.17956462289005395</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.069940104205087</v>
+        <v>2.626380498450748</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.022700807421829224</v>
+        <v>0.026837433118374884</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04473357814423314</v>
+        <v>0.04941591322726513</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.18494263055551968</v>
+        <v>0.09913110681007856</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7531956928946718</v>
+        <v>0.6968314328010975</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7750895356694935</v>
+        <v>0.7510499343331746</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8705481203188894</v>
+        <v>0.8790408374326317</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.23855480840440219</v>
+        <v>0.20089871182361346</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.446213754334246</v>
+        <v>3.016869798051466</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.021319915645099295</v>
+        <v>0.025672535487140484</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.047496489526677975</v>
+        <v>0.060961648181344</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.19432727053287085</v>
+        <v>0.10388797383300766</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7616060607482996</v>
+        <v>0.6914538550924137</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7713661054925216</v>
+        <v>0.7472132463099822</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8684621358108539</v>
+        <v>0.8667470726682891</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.23471897402687666</v>
+        <v>0.19764125171924551</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.3738046896073444</v>
+        <v>2.955903485458182</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.020368054760274153</v>
+        <v>0.025480065204780147</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04842090988943293</v>
+        <v>0.0592962885701237</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.19432727053287085</v>
+        <v>0.10388797383300766</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7427209267950187</v>
+        <v>0.7047900464503322</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7613539763151151</v>
+        <v>0.7484925243007673</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8870785230480963</v>
+        <v>0.8717779784656436</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.22482294876244172</v>
+        <v>0.1987192839716399</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.190306566014394</v>
+        <v>2.976024955997167</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.02242113884293492</v>
+        <v>0.02411278708814493</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05616433277738324</v>
+        <v>0.06015184839037267</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1897255792937857</v>
+        <v>0.10121811786212792</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7449583611286047</v>
+        <v>0.6862388697704536</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7623121929040221</v>
+        <v>0.7471492803177883</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.888274350470812</v>
+        <v>0.8851438994869977</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2257446602705904</v>
+        <v>0.19758755897100833</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.2071994025179493</v>
+        <v>2.9549027238554895</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.022275700873977525</v>
+        <v>0.02624556719311206</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05559027059680572</v>
+        <v>0.06769275464270996</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.15658498064890286</v>
+        <v>0.09597104152061481</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7324522987062807</v>
+        <v>0.6920084705296574</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.75055397388511</v>
+        <v>0.7485651446316667</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8559484593161311</v>
+        <v>0.8862468902390646</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.21478394882028062</v>
+        <v>0.19878072191628707</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.008883266552497</v>
+        <v>2.977173326009533</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02317075693232934</v>
+        <v>0.0257466073143412</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.049862120890823904</v>
+        <v>0.0673144819178016</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.15658498064890286</v>
+        <v>0.09870108272215665</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7317525047702877</v>
+        <v>0.6750724996398066</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7501734558656518</v>
+        <v>0.7400067389710779</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8570585628755071</v>
+        <v>0.857416682360218</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.21444154780248836</v>
+        <v>0.1917152721687813</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.0027772207513443</v>
+        <v>2.8462535376590337</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.023250052118581003</v>
+        <v>0.02701772983895269</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.05050456963473806</v>
+        <v>0.061664311045927324</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.15658498064890286</v>
+        <v>0.09870108272215665</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6736547426988152</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7385044483960036</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8581166278892405</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.1905104528624565</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.8241568312197534</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.027152245209710726</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.0625577420145682</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.09804631537097575</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>308.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6902963566193946</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7071861734437472</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.7002331756416984</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5986094113259414</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.064935064935065</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.2089531621252743</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6488097019118653</v>
+        <v>0.39961626892550495</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6596808125623658</v>
+        <v>0.48293764539980616</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6413457765403714</v>
+        <v>0.43270665570221706</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5364607855369893</v>
+        <v>0.37142747063234466</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.5454545454545454</v>
+        <v>0.9415584415584416</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.3340487666999543</v>
+        <v>0.23495825360748654</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6562853220042777</v>
+        <v>0.6216224221080388</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6846443725506448</v>
+        <v>0.6492872103854357</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6726659118770316</v>
+        <v>0.6297979508862334</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5748710455345976</v>
+        <v>0.5000703426482034</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.340909090909091</v>
+        <v>3.064935064935065</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0196833919024308</v>
+        <v>1.2089531621252743</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6411468811478738</v>
+        <v>0.5784159628232672</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6612010744113935</v>
+        <v>0.6036781463525464</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6402784112247182</v>
+        <v>0.5829768027874465</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5340990123975979</v>
+        <v>0.4327790597765482</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.6006493506493507</v>
+        <v>3.5454545454545454</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2632101577738994</v>
+        <v>1.3340487666999543</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.4799867622413875</v>
+        <v>0.5415114207060899</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.49554957504747654</v>
+        <v>0.610890711515606</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5184167785332883</v>
+        <v>0.6416674719496348</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.34935600167426956</v>
+        <v>0.5065173522933328</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.4642857142857143</v>
+        <v>0.1331168831168831</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.2354787053836627</v>
+        <v>0.34025382263578824</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.4886975047965836</v>
+        <v>0.5277395832279119</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5040854687662985</v>
+        <v>0.5928996358800869</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5275127543743459</v>
+        <v>0.6246386362804834</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.3552632657989263</v>
+        <v>0.38537121525589946</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.4772727272727273</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.2695903428793884</v>
+        <v>1.2354787053836627</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.37841931705397713</v>
+        <v>0.534010414506649</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.32790037872492694</v>
+        <v>0.5978901244019891</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.27022555165845524</v>
+        <v>0.6301432367334112</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.22065105792181663</v>
+        <v>0.38827866042854625</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.5876623376623376</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.365743186835652</v>
+        <v>1.2695903428793884</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.42485511545168475</v>
+        <v>0.3304961349071438</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.36108820388859003</v>
+        <v>0.3818997167327525</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3071332766569986</v>
+        <v>0.31546812418409176</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.22366066757395522</v>
+        <v>0.29213710472430976</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.779220779220779</v>
+        <v>0.8993506493506493</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.754461054794769</v>
+        <v>0.30135346226286835</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4534127225174195</v>
+        <v>0.4465979787356017</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4467090946693674</v>
+        <v>0.4148788675228267</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.339111257485347</v>
+        <v>0.37872410126538325</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3061912593941044</v>
+        <v>0.2744378771786073</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>0.9253246753246753</v>
+        <v>2.5876623376623376</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.347313006409167</v>
+        <v>1.365743186835652</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4445150118175697</v>
+        <v>0.47194588478891697</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.43873440197590763</v>
+        <v>0.403964662261923</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3271185326831763</v>
+        <v>0.35795210178315534</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2911864933946525</v>
+        <v>0.24859284050788003</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.227272727272727</v>
+        <v>2.779220779220779</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3887529956879578</v>
+        <v>1.754461054794769</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5152793828290094</v>
+        <v>0.4726722979921992</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5335670092995083</v>
+        <v>0.41542246320280835</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5115961576788909</v>
+        <v>0.3103042587380523</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.39177916573399485</v>
+        <v>0.30674657989967047</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.7272727272727273</v>
+        <v>0.9253246753246753</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.214852317522827</v>
+        <v>1.347313006409167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>308.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.515722738980773</v>
+        <v>0.4480375380080449</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5365294795200503</v>
+        <v>0.40334265272816516</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5130970682295064</v>
+        <v>0.29518450601369556</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4041801142089524</v>
+        <v>0.27286829661154666</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.227272727272727</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3887529956879578</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>308.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5209953060874569</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.47487462093561467</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.45140391675728214</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.38020706309664903</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.7272727272727273</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.214852317522827</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>308.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.523879929598414</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.4870724426448655</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.4626553852902295</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.3972407457688226</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.4967532467532467</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.108152721231368</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.05844155844155844</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.09740259740259741</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.00974025974025974</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.43506493506493504</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.3538961038961039</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.05844155844155844</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.36038961038961037</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.19480519480519481</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.30844155844155846</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.016233766233766232</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06493506493506493</v>
+        <v>0.9415584415584416</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.032467532467532464</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.4155844155844156</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.38961038961038963</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08116883116883117</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.016233766233766232</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.09740259740259741</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.00974025974025974</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.43506493506493504</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.3538961038961039</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.045454545454545456</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.07467532467532467</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="F46" t="n" s="113">
-        <v>0.08116883116883117</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.36688311688311687</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8668831168831169</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.006493506493506494</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.006493506493506494</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.05194805194805195</v>
+        <v>0.36038961038961037</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.05194805194805195</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.016233766233766232</v>
+        <v>0.30844155844155846</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8668831168831169</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.003246753246753247</v>
+        <v>0.1331168831168831</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.006493506493506494</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06168831168831169</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.032467532467532464</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.02922077922077922</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.10064935064935066</v>
+        <v>0.8668831168831169</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.17532467532467533</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.05844155844155844</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.39935064935064934</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.23376623376623376</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.032467532467532464</v>
+        <v>0.016233766233766232</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.10064935064935066</v>
+        <v>0.8668831168831169</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.20454545454545456</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.17207792207792208</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.1396103896103896</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.1038961038961039</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.2792207792207792</v>
+        <v>0.02922077922077922</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.6266233766233766</v>
+        <v>0.10064935064935066</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.09415584415584416</v>
+        <v>0.8993506493506493</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05194805194805195</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.18181818181818182</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.21428571428571427</v>
+        <v>0.10064935064935066</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.1038961038961039</v>
+        <v>0.17532467532467533</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.048701298701298704</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5064935064935064</v>
+        <v>0.39935064935064934</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1266233766233766</v>
+        <v>0.23376623376623376</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2305194805194805</v>
+        <v>0.10064935064935066</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.1525974025974026</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3409090909090909</v>
+        <v>0.17207792207792208</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.21103896103896103</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.06493506493506493</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2792207792207792</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.2694805194805195</v>
+        <v>0.6266233766233766</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.15584415584415584</v>
+        <v>0.09415584415584416</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4090909090909091</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.1396103896103896</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.025974025974025976</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.048701298701298704</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.1266233766233766</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.2305194805194805</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.1525974025974026</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3409090909090909</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.21103896103896103</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.2694805194805195</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.1396103896103896</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.025974025974025976</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8767168989282196</v>
+        <v>0.8851818943548742</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8810172995608446</v>
+        <v>0.9877970416427176</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8792987943123299</v>
+        <v>0.982143093071579</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6492638139258692</v>
+        <v>0.964263311569639</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>7.404583156283079</v>
+        <v>80.94734184299156</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.011528505014333484</v>
+        <v>0.0018362186977299328</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.387987012987013</v>
+        <v>0.3582251082251082</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0356205585053178</v>
+        <v>0.9392095280883798</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6550312001160801</v>
+        <v>0.9608882456433725</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8314019038833583</v>
+        <v>0.9852823504469324</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8398122021018494</v>
+        <v>0.9854677346978236</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7889213501989885</v>
+        <v>0.971351792743924</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6360403848538034</v>
+        <v>0.9713517927439241</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>5.242672744872943</v>
+        <v>67.81239636123581</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.016445849314590682</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.007860414522759868</v>
-      </c>
+        <v>0.0016663215800731097</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6225765761446569</v>
+        <v>0.971351792743924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8439891894820978</v>
+        <v>0.649130060862662</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.852085613873957</v>
+        <v>0.9800540625180836</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8079979989195614</v>
+        <v>0.9608882456433723</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6575603444836887</v>
+        <v>0.9608882456433725</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.760667614493328</v>
+        <v>49.13552262994051</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.015632087655058524</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.008426845837983567</v>
-      </c>
+        <v>0.0063144660589064825</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6874858240875031</v>
+        <v>0.9608882456433725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8424176374003984</v>
+        <v>0.6593161802797445</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8425959097903751</v>
+        <v>0.9798780414860158</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7945881923799107</v>
+        <v>0.96054989632162</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6408508270169863</v>
+        <v>0.9605498963216201</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.3530750609354385</v>
+        <v>48.69695168117074</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.015605542696756227</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.00936191456038999</v>
-      </c>
+        <v>0.006348735360469272</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6225765761446569</v>
+        <v>0.9605498963216201</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8507150029245989</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8548962553448235</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8136106331492091</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6626036993489985</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.891620904590661</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.014322720172377061</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.009542475339702285</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6874858240875031</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>308.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9749074869536786</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9856244752130483</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9728915744984188</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9676756209990718</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.1331168831168831</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.34025382263578824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>308.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8702318246939126</v>
+        <v>0.9921564363228051</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8700094660787381</v>
+        <v>0.9891546297529322</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8264632638993206</v>
+        <v>0.982161765647585</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7612818345496757</v>
+        <v>0.9754489099996464</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.064935064935065</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.2089531621252743</v>
+        <v>1.2354787053836627</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>308.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8660274973703856</v>
+        <v>0.9925441247204294</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8512083195342383</v>
+        <v>0.9892687808512904</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7929207130591378</v>
+        <v>0.9824109723823083</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7362487495960318</v>
+        <v>0.9756306553291991</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.5454545454545454</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.3340487666999543</v>
+        <v>1.2695903428793884</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>308.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8482937261759014</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8658067710175334</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.817549376652233</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7509349500707686</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.340909090909091</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0196833919024308</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>308.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8471264835532205</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8468021377602294</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7829979876692775</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7141806142306415</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.6006493506493507</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2632101577738994</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8668831168831169</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.1331168831168831</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8668831168831169</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.016233766233766232</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.05844155844155844</v>
+        <v>0.8668831168831169</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.09740259740259741</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.00974025974025974</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.43506493506493504</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.3538961038961039</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.045454545454545456</v>
+        <v>0.02922077922077922</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.05844155844155844</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.36038961038961037</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.19480519480519481</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.30844155844155846</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.016233766233766232</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.032467532467532464</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.38961038961038963</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08116883116883117</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.016233766233766232</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.07467532467532467</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.08116883116883117</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.36688311688311687</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.81507310302869</v>
+        <v>0.7066680147728737</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8301058850455689</v>
+        <v>0.8333772350712221</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7095564243246941</v>
+        <v>0.7817402341701823</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7095564243246941</v>
+        <v>0.6250740890616452</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.886019067041958</v>
+        <v>5.001580878984005</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.01983384502031605</v>
+        <v>0.015001349263775162</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.6834415584415585</v>
+        <v>2.088744588744589</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.444280590219074</v>
+        <v>1.0284003353702587</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7095564243246941</v>
+        <v>0.634871300483955</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.81507310302869</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8301058850455689</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7095564243246941</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7095564243246941</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5034703193004455</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.7095564243246941</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7095564243246941</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.886019067041958</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.01983384502031605</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7095564243246941</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5034703193004455</v>
+        <v>0.3009341819882907</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7095564243246941</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5034703193004455</v>
-      </c>
+        <v>0.6934889401321254</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5307945423762863</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5307945423762863</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.2625250143699946</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.022891208814183536</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7095564243246941</v>
+        <v>0.5307945423762863</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.4216715307289267</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7766621143768568</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.634871300483955</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.634871300483955</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.4775206732608903</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.022236441238286837</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.634871300483955</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>308.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9037829342762161</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9245421635395257</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7787896839407735</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7095564243246943</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.5876623376623376</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.365743186835652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>308.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.942868347548232</v>
+        <v>0.6805660195087256</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9245421635395257</v>
+        <v>0.833537724895136</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7787896839407735</v>
+        <v>0.688544512272182</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7095564243246943</v>
+        <v>0.622569297832037</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8993506493506493</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.30135346226286835</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>308.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9081913815129633</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9023409397902165</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8448341297906627</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7436189698847957</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.5876623376623376</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.365743186835652</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>308.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9346197133916929</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8622830959388528</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7638140122548399</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7171279279763199</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.779220779220779</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.754461054794769</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.10064935064935066</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8993506493506493</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.10064935064935066</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.17532467532467533</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.05844155844155844</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.39935064935064934</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.23376623376623376</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.032467532467532464</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.10064935064935066</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.20454545454545456</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.17207792207792208</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.1396103896103896</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.1038961038961039</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2792207792207792</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8884309288256149</v>
+        <v>0.7364735545989588</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8905148803306411</v>
+        <v>0.8646362421368893</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8026379665155189</v>
+        <v>0.8149764584624859</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8026379665155188</v>
+        <v>0.6804261585873893</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.133661295890843</v>
+        <v>6.387501764033986</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01256569699925795</v>
+        <v>0.012175303125051431</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.6120129870129871</v>
+        <v>2.517316017316017</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1028325271285198</v>
+        <v>0.8482740628432913</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8026379665155188</v>
+        <v>0.663198660384769</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8026379665155188</v>
+        <v>0.8517907987411959</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8026379665155188</v>
+        <v>0.854158355910213</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6442277052921671</v>
+        <v>0.7454418857229821</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8026379665155188</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8026379665155188</v>
-      </c>
+        <v>0.7454418857229821</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.856752104250501</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.016708118515181048</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8026379665155188</v>
+        <v>0.7454418857229821</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6442277052921671</v>
+        <v>0.3694528504031729</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8026379665155188</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6442277052921671</v>
-      </c>
+        <v>0.797497828950082</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.663198660384769</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.663198660384769</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.938218661139658</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.018865041929265434</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8026379665155188</v>
+        <v>0.663198660384769</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3831255214087619</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7749886464886044</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6326379296544167</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6326379296544169</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.444220188868626</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.020989447052522318</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6326379296544168</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>308.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9540423013091743</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9493782087544244</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8505485499980837</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8026379665155189</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.7272727272727273</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.214852317522827</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>308.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9444948637889525</v>
+        <v>0.7405339526670907</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9493782087544244</v>
+        <v>0.8626724633252273</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8505485499980838</v>
+        <v>0.7403438636059178</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8026379665155189</v>
+        <v>0.6942397419313153</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.4967532467532467</v>
+        <v>0.9415584415584416</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.108152721231368</v>
+        <v>0.23495825360748654</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>308.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9242502301886675</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8935757802695387</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.819092874255866</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7619569945562492</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.064935064935065</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.2089531621252743</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>308.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9395851315040283</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9050591327757908</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8430863486479306</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7717017175201936</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.5454545454545454</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.3340487666999543</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.2305194805194805</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.1525974025974026</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3409090909090909</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.21103896103896103</v>
-      </c>
-      <c r="F23" t="n" s="458">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.05844155844155844</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9415584415584416</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.05844155844155844</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.09740259740259741</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.00974025974025974</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.43506493506493504</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.3538961038961039</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.05844155844155844</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="D27" t="n" s="456">
         <v>0.06493506493506493</v>
       </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2694805194805195</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.15584415584415584</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.1396103896103896</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E27" t="n" s="457">
+        <v>0.36038961038961037</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.30844155844155846</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9852823504469324</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9854677346978236</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.971351792743924</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9713517927439241</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>67.81239636123581</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0016663215800731097</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.4707792207792208</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.2435331258703366</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.971351792743924</v>
+      <c r="A6" t="n" s="491">
+        <v>0.4754581609824058</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.4756244601380035</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3120126554779685</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3120126554779685</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>0.9070302178152259</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05974671644954259</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.5762987012987013</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1080942652657852</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.31201265547796864</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9713517927439241</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9713517927439241</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9435243052668351</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9713517927439241</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9713517927439241</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9713517927439241</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.31201265547796864</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.31201265547796864</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.09735189717841342</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.31201265547796864</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.31201265547796864</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.31201265547796864</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9435243052668351</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9713517927439241</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9435243052668351</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9713517927439241</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.09735189717841342</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.31201265547796864</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.09735189717841342</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.31201265547796864</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>308.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9926143138575875</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9928121153430602</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9784876335474963</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9713517927439241</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.2354787053836627</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8034612091281126</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8099421755526652</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.45241825375220107</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.31201265547796864</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>0.9253246753246753</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.347313006409167</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>308.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9930072415731791</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9928121153430602</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9784876335474963</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9713517927439239</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.4772727272727273</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.2695903428793884</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8163257230393449</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8099421755526652</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.45241825375220107</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.31201265547796875</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.227272727272727</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3887529956879578</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8668831168831169</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.6266233766233766</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.09415584415584416</v>
+      </c>
+      <c r="D23" t="n" s="571">
         <v>0.05194805194805195</v>
       </c>
-      <c r="F23" t="n" s="572">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.016233766233766232</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="E23" t="n" s="572">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8668831168831169</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.003246753246753247</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.06168831168831169</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.032467532467532464</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.02922077922077922</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.048701298701298704</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.1266233766233766</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.4754581609824058</v>
+        <v>0.8884309288256149</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.4756244601380035</v>
+        <v>0.8905148803306411</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3120126554779685</v>
+        <v>0.8026379665155189</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3120126554779685</v>
+        <v>0.8026379665155188</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>0.9070302178152259</v>
+        <v>8.133661295890843</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05974671644954259</v>
+        <v>0.01256569699925795</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.5762987012987013</v>
+        <v>1.6120129870129871</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1080942652657852</v>
+        <v>1.1028325271285198</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.31201265547796864</v>
+        <v>0.8026379665155188</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.31201265547796864</v>
+        <v>0.8026379665155188</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.31201265547796864</v>
+        <v>0.8026379665155188</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.09735189717841342</v>
+        <v>0.6442277052921671</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.31201265547796864</v>
+        <v>0.8026379665155188</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.31201265547796864</v>
+        <v>0.8026379665155188</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.31201265547796864</v>
+        <v>0.8026379665155188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.09735189717841342</v>
+        <v>0.6442277052921671</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.31201265547796864</v>
+        <v>0.8026379665155188</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.09735189717841342</v>
+        <v>0.6442277052921671</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.31201265547796864</v>
+        <v>0.8026379665155188</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>308.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8034612091281126</v>
+        <v>0.9540423013091743</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8099421755526652</v>
+        <v>0.9493782087544244</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.45241825375220107</v>
+        <v>0.8505485499980837</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.31201265547796864</v>
+        <v>0.8026379665155189</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>0.9253246753246753</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.347313006409167</v>
+        <v>1.214852317522827</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>308.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8163257230393449</v>
+        <v>0.9444948637889525</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8099421755526652</v>
+        <v>0.9493782087544244</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.45241825375220107</v>
+        <v>0.8505485499980838</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.31201265547796875</v>
+        <v>0.8026379665155189</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.227272727272727</v>
+        <v>1.4967532467532467</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3887529956879578</v>
+        <v>1.108152721231368</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.6266233766233766</v>
+        <v>0.2305194805194805</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.09415584415584416</v>
+        <v>0.1525974025974026</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05194805194805195</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.18181818181818182</v>
+        <v>0.21103896103896103</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.045454545454545456</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.21428571428571427</v>
+        <v>0.2694805194805195</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.1038961038961039</v>
+        <v>0.15584415584415584</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.048701298701298704</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5064935064935064</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.1266233766233766</v>
+        <v>0.025974025974025976</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7884086183835897</v>
+        <v>0.7365355917646982</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7942786276902887</v>
+        <v>0.7803536722031379</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8897877155296401</v>
+        <v>0.8882924548058729</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.27854839851524027</v>
+        <v>0.26214365386427696</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.8609436577863696</v>
+        <v>3.552773588479208</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.018465349593651925</v>
+        <v>0.022117784995985688</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.087012987012987</v>
+        <v>1.5003246753246753</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7296602483393787</v>
+        <v>0.6209427725771959</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.20940363354853744</v>
+        <v>0.18494263055551968</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7499779047843507</v>
+        <v>0.7230336396424724</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7566058979267188</v>
+        <v>0.7478943337539585</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8588973254550389</v>
+        <v>0.8609282832699146</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2567243522862556</v>
+        <v>0.2479060912817196</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.108562990975515</v>
+        <v>2.9665907351088823</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.022053756177674487</v>
+        <v>0.023724206187583363</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04625564251296231</v>
+        <v>0.052106841678837446</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.20402360405415934</v>
+        <v>0.18813869940730377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7548014463663314</v>
+        <v>0.7063750653499257</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7624563346612141</v>
+        <v>0.7510172039805131</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8652677704518474</v>
+        <v>0.8614817400345407</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2628843114486368</v>
+        <v>0.25101997069585125</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.2097523357391786</v>
+        <v>3.0163417552822955</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02169233887076066</v>
+        <v>0.02409935715782491</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.047330599053303016</v>
+        <v>0.05045314831461423</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.20944397762111203</v>
+        <v>0.18574722503817076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7563054107759895</v>
+        <v>0.7059628799840583</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7594126362864548</v>
+        <v>0.7502720669026459</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8615557539899005</v>
+        <v>0.8608594927875328</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2596549797880494</v>
+        <v>0.25027226443368905</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.1564942753628893</v>
+        <v>3.0043578129089763</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02145907785940043</v>
+        <v>0.024109781450033937</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.046448563649225734</v>
+        <v>0.050554822951098054</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20569557306233383</v>
+        <v>0.18574722503817076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7551859646835699</v>
+        <v>0.7348557428696029</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7616812829515123</v>
+        <v>0.7697823757164586</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8658075263528606</v>
+        <v>0.8825562701179022</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2620568550456279</v>
+        <v>0.27088407327377</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.1960615279602345</v>
+        <v>3.3437160952038005</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.02161855949044228</v>
+        <v>0.023041565671446065</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.047999368153660765</v>
+        <v>0.07038737593914687</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.20645701578874656</v>
+        <v>0.19020924873179101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7754476594700963</v>
+        <v>0.6944232274534337</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7816304802333428</v>
+        <v>0.7462147925851199</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8620183452744741</v>
+        <v>0.866894048623186</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2845442137542208</v>
+        <v>0.24625261823114084</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.579393685843008</v>
+        <v>2.940339983509091</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.01954604879194728</v>
+        <v>0.025756196395509603</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.049179954509154584</v>
+        <v>0.07253889727837129</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.20806280116316184</v>
+        <v>0.13262213957313473</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7743368211461359</v>
+        <v>0.7032252466665512</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7816447291669286</v>
+        <v>0.7515467759072479</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8635120321729503</v>
+        <v>0.8666308913348764</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2845612094691492</v>
+        <v>0.25155318237411683</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.5796925175416616</v>
+        <v>3.0249024887947598</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.01970537400531316</v>
+        <v>0.025000479335124736</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04994899141982466</v>
+        <v>0.07143446415036012</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.20944397762111203</v>
+        <v>0.13965344321642373</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7779301858606035</v>
+        <v>0.7289501527471854</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7852119953406979</v>
+        <v>0.7798440417967402</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8432671453348826</v>
+        <v>0.8980765276926297</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.28886099000463994</v>
+        <v>0.28242451827294535</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.6557534792792787</v>
+        <v>3.542234551184602</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.019209421583151084</v>
+        <v>0.022849173269019262</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.04161282761528171</v>
+        <v>0.07952726853471313</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.21053655697032364</v>
+        <v>0.18813869940730377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.777482137562878</v>
+        <v>0.7307588647947013</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7840763347239451</v>
+        <v>0.7789155636057957</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8425784627373482</v>
+        <v>0.8981653558884801</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.287482365769863</v>
+        <v>0.2813314764025459</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.6312663260949956</v>
+        <v>3.5231587365876433</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.019221885372803452</v>
+        <v>0.022724011352904385</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.04187032321934759</v>
+        <v>0.08011938685821782</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.21053655697032364</v>
+        <v>0.18445553597064274</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7890429617849798</v>
+        <v>0.7115640643620345</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7943034026459608</v>
+        <v>0.7691437015220113</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.89864988448078</v>
+        <v>0.8610499473157075</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.30023872675184743</v>
+        <v>0.27017355910646684</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.8615291301043153</v>
+        <v>3.3316990118653664</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.01859034924274225</v>
+        <v>0.023998279921398583</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.05644728234067519</v>
+        <v>0.07106240127646923</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.21053655697032364</v>
+        <v>0.18445553597064274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7882494281049572</v>
+        <v>0.7099763793830398</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7929268568597123</v>
+        <v>0.7686434211994072</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8989110511848257</v>
+        <v>0.8622590688411085</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.2984759808341124</v>
+        <v>0.2696187845705238</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.829211479745205</v>
+        <v>3.3223322422220996</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.018729618509635518</v>
+        <v>0.02421171248312192</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05706047236991137</v>
+        <v>0.07205355084590562</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.20569557306233383</v>
+        <v>0.18526013045329381</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7199070057376571</v>
+        <v>0.6195683917866729</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7248642035783571</v>
+        <v>0.6680270423316998</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7115990363395982</v>
+        <v>0.6977327851609545</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6239831827416465</v>
+        <v>0.5840413558339393</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.064935064935065</v>
+        <v>0.1331168831168831</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.2089531621252743</v>
+        <v>0.34025382263578824</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6902877761476455</v>
+        <v>0.6031522338929666</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6874172545773637</v>
+        <v>0.6486859785951722</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6630773608414751</v>
+        <v>0.679771233773648</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5742077324244989</v>
+        <v>0.45201237746712314</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.5454545454545454</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.3340487666999543</v>
+        <v>1.2354787053836627</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.69025113749027</v>
+        <v>0.6088401389590389</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7070486538794596</v>
+        <v>0.653330164367765</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6891495219901057</v>
+        <v>0.6848798513853727</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.6054947638061218</v>
+        <v>0.4541469391581264</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.340909090909091</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0196833919024308</v>
+        <v>1.2695903428793884</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6863100566435139</v>
+        <v>0.44219385182846344</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6924474369060464</v>
+        <v>0.5253051976038234</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6657004238226902</v>
+        <v>0.46472598067912463</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5765274855558558</v>
+        <v>0.41099101148309614</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.6006493506493507</v>
+        <v>0.9415584415584416</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2632101577738994</v>
+        <v>0.23495825360748654</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5471906446410633</v>
+        <v>0.6577807674274814</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5557447490261792</v>
+        <v>0.6782971663168291</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.528452003521334</v>
+        <v>0.648923467907788</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.41401640407043366</v>
+        <v>0.5237453551968446</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.7272727272727273</v>
+        <v>3.064935064935065</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.214852317522827</v>
+        <v>1.2089531621252743</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5441954663106496</v>
+        <v>0.6285482669450688</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5556414305376336</v>
+        <v>0.6453740709446725</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5266020292873306</v>
+        <v>0.6165747158944643</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4236027063942294</v>
+        <v>0.46961124321747677</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.4967532467532467</v>
+        <v>3.5454545454545454</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.108152721231368</v>
+        <v>1.3340487666999543</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5320862588309572</v>
+        <v>0.5143620434797008</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5295026756882028</v>
+        <v>0.4536246818895745</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5512840916674119</v>
+        <v>0.3309287247903722</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.39382445050684034</v>
+        <v>0.3276331182530402</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.4642857142857143</v>
+        <v>0.9253246753246753</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.2354787053836627</v>
+        <v>1.347313006409167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5404765821818203</v>
+        <v>0.5158975618806928</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5378834571269016</v>
+        <v>0.4604138312657983</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5602248181060003</v>
+        <v>0.3370760059545697</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.3993407909313164</v>
+        <v>0.32287718272928795</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.4772727272727273</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.2695903428793884</v>
+        <v>1.3887529956879578</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4758069738395298</v>
+        <v>0.5752805608219883</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.4603363847294313</v>
+        <v>0.5297183742134092</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.34068569540974125</v>
+        <v>0.49990675927302386</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.31425936596802423</v>
+        <v>0.42099159227639776</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>0.9253246753246753</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.347313006409167</v>
+        <v>1.214852317522827</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>308.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.4912076491901911</v>
+        <v>0.5725553396527189</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.47105227662791194</v>
+        <v>0.5331642140267242</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.34930432756649205</v>
+        <v>0.5021121880383134</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3264944060409746</v>
+        <v>0.4332283736978863</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.227272727272727</v>
+        <v>1.4967532467532467</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3887529956879578</v>
+        <v>1.108152721231368</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.05844155844155844</v>
+        <v>0.8668831168831169</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.09740259740259741</v>
+        <v>0.1331168831168831</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.00974025974025974</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.43506493506493504</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.3538961038961039</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.05844155844155844</v>
+        <v>0.8668831168831169</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.012987012987012988</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.06493506493506493</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.36038961038961037</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.19480519480519481</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.30844155844155846</v>
+        <v>0.016233766233766232</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.016233766233766232</v>
+        <v>0.8668831168831169</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06493506493506493</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="D41" t="n" s="799">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="E41" t="n" s="800">
+        <v>0.06168831168831169</v>
+      </c>
+      <c r="F41" t="n" s="801">
         <v>0.032467532467532464</v>
       </c>
-      <c r="E41" t="n" s="800">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.38961038961038963</v>
-      </c>
       <c r="G41" t="n" s="802">
-        <v>0.08116883116883117</v>
+        <v>0.02922077922077922</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.016233766233766232</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.045454545454545456</v>
+        <v>0.9415584415584416</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.07467532467532467</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.4155844155844156</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.08116883116883117</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.36688311688311687</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.2305194805194805</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.1525974025974026</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3409090909090909</v>
+        <v>0.00974025974025974</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.21103896103896103</v>
+        <v>0.43506493506493504</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.06493506493506493</v>
+        <v>0.3538961038961039</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.2694805194805195</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.15584415584415584</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4090909090909091</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.1396103896103896</v>
+        <v>0.36038961038961037</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.025974025974025976</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.30844155844155846</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8668831168831169</v>
+        <v>0.6266233766233766</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.006493506493506494</v>
+        <v>0.09415584415584416</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.006493506493506494</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.05194805194805195</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.05194805194805195</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.016233766233766232</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8668831168831169</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.003246753246753247</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.006493506493506494</v>
+        <v>0.048701298701298704</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.06168831168831169</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.032467532467532464</v>
+        <v>0.1266233766233766</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.02922077922077922</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.6266233766233766</v>
+        <v>0.2305194805194805</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.09415584415584416</v>
+        <v>0.1525974025974026</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05194805194805195</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.18181818181818182</v>
+        <v>0.21103896103896103</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.045454545454545456</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.21428571428571427</v>
+        <v>0.2694805194805195</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.1038961038961039</v>
+        <v>0.15584415584415584</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.048701298701298704</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5064935064935064</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.1266233766233766</v>
+        <v>0.025974025974025976</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
